--- a/RO/RépTPs/TP2/EXO3.xlsx
+++ b/RO/RépTPs/TP2/EXO3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\PycharmProjects\TPs\TPs\RO\RépTPs\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C32EEA1-70AF-4737-9117-BA657DFE7919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479BE37-AE7A-4ABA-9424-71B4318D3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2E100B6C-7072-4044-BFC3-9DD87ABE5071}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{2E100B6C-7072-4044-BFC3-9DD87ABE5071}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -615,13 +615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F89EE2E-873C-4A68-92EE-511A693F4CE8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="21.08984375" customWidth="1"/>
@@ -744,7 +744,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:16" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="59" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="37" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -772,7 +772,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
